--- a/fhir/core/ValueSet-extended-patient-contactrelationship.xlsx
+++ b/fhir/core/ValueSet-extended-patient-contactrelationship.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
